--- a/biology/Zoologie/Ceratinia_tutia/Ceratinia_tutia.xlsx
+++ b/biology/Zoologie/Ceratinia_tutia/Ceratinia_tutia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratinia tutia est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Ceratinia.
 </t>
@@ -511,12 +523,49 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratinia tutia a été décrit par William Chapman Hewitson en 1852 sous le nom initial d' Ithomia tutia.
-Synonyme : Calloleria tutia ; Godman &amp; Salvin, [1879][1].
-Sous-espèces
-Ceratinia tutia tutia ; présent au Venezuela
+Synonyme : Calloleria tutia ; Godman &amp; Salvin, .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ceratinia_tutia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_tutia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ceratinia tutia tutia ; présent au Venezuela
 Ceratinia tutia azarina (Weymer, 1899); présent en Équateur et au Pérou.
 Ceratinia tutia callichroma (Staudinger, 1885); présent en Équateur
 Ceratinia tutia chanchamaya (Haensch, 1905); présent au Pérou.
@@ -531,42 +580,7 @@
 Ceratinia tutia selenides (Weymer, 1899); présent au Pérou.
 Ceratinia tutia singularis (Rebel, 1902); présent en Équateur
 Ceratinia tutia tosca (Schaus, 1902); présent en Colombie
-Ceratinia tutia transversa (Hering, 1925); présent en Colombie[1].
-Nom vernaculaire
-Ceratinia tutia se nomme Tutia Tigerwing en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ceratinia_tutia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ceratinia_tutia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratinia tutia est un papillon d'une envergure d'environ 52 mm à 55 mm, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures[3],[4]. Les ailes antérieures ont une partie basale orange, jusqu'à la moitié du bord costal de l'angle externe et le reste de l'aile marron avec une grande flaque jaune dentelée. Les ailes postérieures sont orange avec une marge dentelée de marron, une ligne marron le long du bord costal et au centre de l'aile une bande marron dentelée. Mais les variations sont importantes entre les sous-espèces.
-Le revers est semblable en plus clair avec une ligne submarginale de marques blanches.
-</t>
+Ceratinia tutia transversa (Hering, 1925); présent en Colombie.</t>
         </is>
       </c>
     </row>
@@ -591,13 +605,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Solanum, Solanum antillarum pour Ceratinia tutia dorilla[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia tutia se nomme Tutia Tigerwing en anglais.
 </t>
         </is>
       </c>
@@ -623,15 +642,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia tutia est un papillon d'une envergure d'environ 52 mm à 55 mm, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures,. Les ailes antérieures ont une partie basale orange, jusqu'à la moitié du bord costal de l'angle externe et le reste de l'aile marron avec une grande flaque jaune dentelée. Les ailes postérieures sont orange avec une marge dentelée de marron, une ligne marron le long du bord costal et au centre de l'aile une bande marron dentelée. Mais les variations sont importantes entre les sous-espèces.
+Le revers est semblable en plus clair avec une ligne submarginale de marques blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceratinia_tutia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_tutia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Solanum, Solanum antillarum pour Ceratinia tutia dorilla.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ceratinia_tutia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_tutia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratinia tutia est présent dans le sud du Mexique,  au Nicaragua, au Costa Rica, à Panama, au Venezuela, en Équateur, en Colombie, en Bolivie au Pérou et au Brésil[1],[2],[4].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia tutia est présent dans le sud du Mexique,  au Nicaragua, au Costa Rica, à Panama, au Venezuela, en Équateur, en Colombie, en Bolivie au Pérou et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ceratinia_tutia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_tutia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Ceratinia tutia, sur Wikimedia CommonsCeratinia tutia, sur Wikispecies
 </t>
